--- a/supplementary/data1.xlsx
+++ b/supplementary/data1.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
-  <si>
-    <t>Supplemental Data 1: Varying non-specific binding rate simulation parameters and correposnding fit values</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
+  <si>
+    <t>Supplemental Data 1: Varying non-specific binding rate simulation parameters and corresponding fit values</t>
   </si>
   <si>
     <t>N</t>
@@ -715,7 +715,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -737,7 +737,7 @@
     <col min="14" max="14" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
@@ -763,22 +763,19 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -807,22 +804,19 @@
         <v>150</v>
       </c>
       <c r="J2">
-        <v>3.7589</v>
+        <v>5</v>
       </c>
       <c r="K2">
+        <v>500</v>
+      </c>
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="L2">
-        <v>500</v>
-      </c>
       <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
@@ -851,22 +845,19 @@
         <v>150</v>
       </c>
       <c r="J3">
-        <v>3.7589</v>
+        <v>5</v>
       </c>
       <c r="K3">
+        <v>500</v>
+      </c>
+      <c r="L3">
         <v>5</v>
       </c>
-      <c r="L3">
-        <v>500</v>
-      </c>
       <c r="M3">
-        <v>5</v>
-      </c>
-      <c r="N3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -895,22 +886,19 @@
         <v>150</v>
       </c>
       <c r="J4">
-        <v>3.7589</v>
+        <v>5</v>
       </c>
       <c r="K4">
+        <v>500</v>
+      </c>
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="L4">
-        <v>500</v>
-      </c>
       <c r="M4">
-        <v>5</v>
-      </c>
-      <c r="N4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -939,22 +927,19 @@
         <v>150</v>
       </c>
       <c r="J5">
-        <v>3.7589</v>
+        <v>5</v>
       </c>
       <c r="K5">
+        <v>500</v>
+      </c>
+      <c r="L5">
         <v>5</v>
       </c>
-      <c r="L5">
-        <v>500</v>
-      </c>
       <c r="M5">
-        <v>5</v>
-      </c>
-      <c r="N5">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -983,18 +968,15 @@
         <v>150</v>
       </c>
       <c r="J6">
-        <v>3.7589</v>
+        <v>5</v>
       </c>
       <c r="K6">
+        <v>500</v>
+      </c>
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="L6">
-        <v>500</v>
-      </c>
       <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
         <v>14</v>
       </c>
     </row>

--- a/supplementary/data1.xlsx
+++ b/supplementary/data1.xlsx
@@ -1019,13 +1019,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0041</v>
+        <v>6.9813</v>
       </c>
       <c r="C2">
-        <v>6.9847</v>
+        <v>6.9626</v>
       </c>
       <c r="D2">
-        <v>7.0273</v>
+        <v>7.001</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1036,13 +1036,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2028</v>
+        <v>0.207</v>
       </c>
       <c r="C3">
-        <v>0.1926</v>
+        <v>0.197</v>
       </c>
       <c r="D3">
-        <v>0.2108</v>
+        <v>0.2168</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1053,13 +1053,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0094</v>
+        <v>0.0102</v>
       </c>
       <c r="C4">
-        <v>0.0068</v>
+        <v>0.0075</v>
       </c>
       <c r="D4">
-        <v>0.012</v>
+        <v>0.0129</v>
       </c>
       <c r="E4">
         <v>0.01</v>
@@ -1070,13 +1070,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1734</v>
+        <v>0.1707</v>
       </c>
       <c r="C5">
-        <v>0.1604</v>
+        <v>0.1558</v>
       </c>
       <c r="D5">
-        <v>0.1907</v>
+        <v>0.1845</v>
       </c>
       <c r="E5">
         <v>0.15</v>
@@ -1087,13 +1087,13 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.2109</v>
+        <v>0.2059</v>
       </c>
       <c r="C6">
-        <v>0.191</v>
+        <v>0.1845</v>
       </c>
       <c r="D6">
-        <v>0.2357</v>
+        <v>0.2262</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1101,7 +1101,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.7545</v>
+        <v>3.7631</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -1168,10 +1168,10 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9999</v>
+        <v>0.9998</v>
       </c>
       <c r="C15">
-        <v>0.9994</v>
+        <v>0.9988</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1216,13 +1216,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0081</v>
+        <v>7.0062</v>
       </c>
       <c r="C2">
-        <v>6.9888</v>
+        <v>6.9859</v>
       </c>
       <c r="D2">
-        <v>7.0312</v>
+        <v>7.0276</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1233,13 +1233,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2028</v>
+        <v>0.2062</v>
       </c>
       <c r="C3">
-        <v>0.1925</v>
+        <v>0.1964</v>
       </c>
       <c r="D3">
-        <v>0.2109</v>
+        <v>0.2158</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1250,13 +1250,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0529</v>
+        <v>0.0524</v>
       </c>
       <c r="C4">
-        <v>0.0464</v>
+        <v>0.0461</v>
       </c>
       <c r="D4">
-        <v>0.059</v>
+        <v>0.0588</v>
       </c>
       <c r="E4">
         <v>0.05</v>
@@ -1267,13 +1267,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1732</v>
+        <v>0.169</v>
       </c>
       <c r="C5">
-        <v>0.1609</v>
+        <v>0.1539</v>
       </c>
       <c r="D5">
-        <v>0.1896</v>
+        <v>0.1829</v>
       </c>
       <c r="E5">
         <v>0.15</v>
@@ -1284,13 +1284,13 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.2106</v>
+        <v>0.2034</v>
       </c>
       <c r="C6">
-        <v>0.1917</v>
+        <v>0.1818</v>
       </c>
       <c r="D6">
-        <v>0.234</v>
+        <v>0.2238</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1298,7 +1298,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.7609</v>
+        <v>3.7713</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -1365,10 +1365,10 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9993</v>
+        <v>0.9992</v>
       </c>
       <c r="C15">
-        <v>0.9972</v>
+        <v>0.9915</v>
       </c>
       <c r="D15">
         <v>0.9998</v>
@@ -1413,13 +1413,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0205</v>
+        <v>7.0151</v>
       </c>
       <c r="C2">
-        <v>7.0012</v>
+        <v>6.9948</v>
       </c>
       <c r="D2">
-        <v>7.0436</v>
+        <v>7.0365</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1430,13 +1430,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2054</v>
+        <v>0.2119</v>
       </c>
       <c r="C3">
-        <v>0.1948</v>
+        <v>0.2016</v>
       </c>
       <c r="D3">
-        <v>0.2138</v>
+        <v>0.222</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1447,10 +1447,10 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.1556</v>
+        <v>0.1549</v>
       </c>
       <c r="C4">
-        <v>0.1445</v>
+        <v>0.1441</v>
       </c>
       <c r="D4">
         <v>0.1656</v>
@@ -1464,13 +1464,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1739</v>
+        <v>0.1696</v>
       </c>
       <c r="C5">
-        <v>0.1616</v>
+        <v>0.1544</v>
       </c>
       <c r="D5">
-        <v>0.1904</v>
+        <v>0.1835</v>
       </c>
       <c r="E5">
         <v>0.15</v>
@@ -1481,13 +1481,13 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.2117</v>
+        <v>0.2043</v>
       </c>
       <c r="C6">
-        <v>0.1927</v>
+        <v>0.1826</v>
       </c>
       <c r="D6">
-        <v>0.2352</v>
+        <v>0.2248</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1495,7 +1495,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.7771</v>
+        <v>3.7895</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -1562,13 +1562,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9981</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="C15">
-        <v>0.9919</v>
+        <v>0.9781</v>
       </c>
       <c r="D15">
-        <v>0.9997</v>
+        <v>0.9993</v>
       </c>
     </row>
   </sheetData>
@@ -1610,13 +1610,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0792</v>
+        <v>7.0598</v>
       </c>
       <c r="C2">
-        <v>7.0606</v>
+        <v>7.04</v>
       </c>
       <c r="D2">
-        <v>7.1014</v>
+        <v>7.0807</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1627,13 +1627,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2068</v>
+        <v>0.2139</v>
       </c>
       <c r="C3">
-        <v>0.1948</v>
+        <v>0.2023</v>
       </c>
       <c r="D3">
-        <v>0.2164</v>
+        <v>0.2249</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1644,13 +1644,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.4959</v>
+        <v>0.4999</v>
       </c>
       <c r="C4">
-        <v>0.4773</v>
+        <v>0.4823</v>
       </c>
       <c r="D4">
-        <v>0.5125</v>
+        <v>0.5171</v>
       </c>
       <c r="E4">
         <v>0.5</v>
@@ -1661,13 +1661,13 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1718</v>
+        <v>0.1743</v>
       </c>
       <c r="C5">
-        <v>0.1592</v>
+        <v>0.1584</v>
       </c>
       <c r="D5">
-        <v>0.1887</v>
+        <v>0.1889</v>
       </c>
       <c r="E5">
         <v>0.15</v>
@@ -1678,13 +1678,13 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.2086</v>
+        <v>0.2111</v>
       </c>
       <c r="C6">
-        <v>0.1894</v>
+        <v>0.1882</v>
       </c>
       <c r="D6">
-        <v>0.2327</v>
+        <v>0.2329</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1692,7 +1692,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.8669</v>
+        <v>3.8661</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -1703,7 +1703,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9704</v>
+        <v>0.9706</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1711,7 +1711,7 @@
         <v>50</v>
       </c>
       <c r="B9">
-        <v>0.9903999999999999</v>
+        <v>0.9952</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1719,7 +1719,7 @@
         <v>51</v>
       </c>
       <c r="B10">
-        <v>0.9606</v>
+        <v>0.9563</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1727,7 +1727,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2065</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1735,7 +1735,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1743,7 +1743,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1751,7 +1751,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1759,13 +1759,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9944</v>
+        <v>0.9926</v>
       </c>
       <c r="C15">
-        <v>0.9707</v>
+        <v>0.9417</v>
       </c>
       <c r="D15">
-        <v>0.9997</v>
+        <v>0.9977</v>
       </c>
     </row>
   </sheetData>
@@ -1807,13 +1807,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>7.0528</v>
+        <v>7.0415</v>
       </c>
       <c r="C2">
-        <v>7.0354</v>
+        <v>7.0217</v>
       </c>
       <c r="D2">
-        <v>7.0737</v>
+        <v>7.0624</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -1824,13 +1824,13 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.2068</v>
+        <v>0.2167</v>
       </c>
       <c r="C3">
-        <v>0.1944</v>
+        <v>0.205</v>
       </c>
       <c r="D3">
-        <v>0.2166</v>
+        <v>0.228</v>
       </c>
       <c r="E3">
         <v>0.2</v>
@@ -1841,13 +1841,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.9798</v>
+        <v>0.9882</v>
       </c>
       <c r="C4">
-        <v>0.9522</v>
+        <v>0.9608</v>
       </c>
       <c r="D4">
-        <v>1.0043</v>
+        <v>1.0147</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1861,10 +1861,10 @@
         <v>0.1722</v>
       </c>
       <c r="C5">
-        <v>0.1596</v>
+        <v>0.1553</v>
       </c>
       <c r="D5">
-        <v>0.1891</v>
+        <v>0.1877</v>
       </c>
       <c r="E5">
         <v>0.15</v>
@@ -1875,13 +1875,13 @@
         <v>49</v>
       </c>
       <c r="B6">
-        <v>0.2091</v>
+        <v>0.208</v>
       </c>
       <c r="C6">
-        <v>0.1899</v>
+        <v>0.1839</v>
       </c>
       <c r="D6">
-        <v>0.2331</v>
+        <v>0.2311</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1889,7 +1889,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>3.9672</v>
+        <v>3.9745</v>
       </c>
       <c r="E7">
         <v>3.7589</v>
@@ -1900,7 +1900,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.9611</v>
+        <v>0.9637</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1916,7 +1916,7 @@
         <v>51</v>
       </c>
       <c r="B10">
-        <v>0.9432</v>
+        <v>0.9475</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1924,7 +1924,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2057</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1932,7 +1932,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1956,13 +1956,13 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>0.9899</v>
+        <v>0.9868</v>
       </c>
       <c r="C15">
-        <v>0.9540999999999999</v>
+        <v>0.9089</v>
       </c>
       <c r="D15">
-        <v>0.9998</v>
+        <v>0.9949</v>
       </c>
     </row>
   </sheetData>

--- a/supplementary/data1.xlsx
+++ b/supplementary/data1.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="52">
   <si>
-    <t>Supplemental Data 1: Varying non-specific binding rate simulation parameters and corresponding fit values</t>
+    <t>Supplementary File 1: Varying non-specific binding rate simulation parameters and corresponding fit values</t>
   </si>
   <si>
     <t>N</t>
